--- a/メモ/相性.xlsx
+++ b/メモ/相性.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\source\repos\C++3DGame\メモ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\git\Vending\メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F591ACCC-5C18-4147-AB2A-A9033E9051F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCA7D6B-97FD-48E4-AB3A-8D27D1CC14C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{11CC8365-CCFD-43CD-B72C-65FEE96D240F}"/>
+    <workbookView xWindow="7270" yWindow="3750" windowWidth="14800" windowHeight="10900" xr2:uid="{11CC8365-CCFD-43CD-B72C-65FEE96D240F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
   <si>
     <t>弾/敵</t>
     <rPh sb="0" eb="1">
@@ -218,6 +218,27 @@
     <t>相性</t>
     <rPh sb="0" eb="2">
       <t>アイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２発</t>
+    <rPh sb="1" eb="2">
+      <t>ハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３発</t>
+    <rPh sb="1" eb="2">
+      <t>ハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６発</t>
+    <rPh sb="1" eb="2">
+      <t>ハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -489,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,31 +544,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -887,7 +902,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -905,17 +920,17 @@
       <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="5" t="s">
@@ -933,24 +948,24 @@
       <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -968,24 +983,24 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="19" t="s">
+      <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1001,16 +1016,16 @@
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="G4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1018,7 +1033,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1034,16 +1049,16 @@
       <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="G5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1051,7 +1066,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1067,16 +1082,16 @@
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="G6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1084,7 +1099,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1100,16 +1115,16 @@
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="G7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -1117,7 +1132,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1133,16 +1148,16 @@
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="G8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -1150,7 +1165,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1166,16 +1181,16 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="G9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1183,7 +1198,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1199,16 +1214,16 @@
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="I10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -1216,7 +1231,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="11"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1232,16 +1247,16 @@
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -1252,18 +1267,27 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>13</v>
       </c>
